--- a/data/income_statement/3digits/total/889_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/889_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>889-Other social work activities without accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>889-Other social work activities without accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,110 +841,125 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>552229.54374</v>
+        <v>552328.99252</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>602332.7164400001</v>
+        <v>602526.5698299999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>726459.8831100001</v>
+        <v>727539.05453</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>894719.7954700001</v>
+        <v>897148.2474199999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>987546.4182000001</v>
+        <v>992202.35518</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1079772.40268</v>
+        <v>1087324.68798</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1307834.66173</v>
+        <v>1324558.38973</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1587612.11925</v>
+        <v>1611606.06089</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1884591.95893</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2041637.34477</v>
+        <v>2058592.26677</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2409806.02346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2462871.75573</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2243083.445</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>522306.6303200001</v>
+        <v>522306.63032</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>567194.7550300001</v>
+        <v>567194.75503</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>682870.11102</v>
+        <v>683948.5811099999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>838587.34815</v>
+        <v>840993.1487200001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>929003.71856</v>
+        <v>933590.46033</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1019024.075</v>
+        <v>1025535.92876</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1239600.93294</v>
+        <v>1256097.72487</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1503454.46719</v>
+        <v>1527260.26892</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1775887.31922</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1920441.28938</v>
+        <v>1935059.59462</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2245158.22415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2293534.61773</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2105326.959</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>909.9069700000001</v>
+        <v>909.90697</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>2076.2888</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4230.604989999999</v>
+        <v>4230.60499</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4296.43791</v>
+        <v>4296.437910000001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>7093.38716</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5007.15094</v>
+        <v>5010.47786</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>10490.49544</v>
@@ -1058,52 +974,62 @@
         <v>17032.19168</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>20849.65113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>22122.40203</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9116.49</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>29013.00645</v>
+        <v>29112.45523</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>33061.67261</v>
+        <v>33255.526</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>39359.1671</v>
+        <v>39359.86843</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>51836.00941</v>
+        <v>51858.66079000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>51449.31248000001</v>
+        <v>51518.50769</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>55741.17674</v>
+        <v>56778.28136</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>57743.23335000001</v>
+        <v>57970.16941999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>70912.22262</v>
+        <v>71100.36253</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>88164.48371000001</v>
+        <v>88164.48371</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>104163.86371</v>
+        <v>106500.48047</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>143798.14818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>147214.73597</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>128639.996</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1848.48066</v>
@@ -1118,13 +1044,13 @@
         <v>1936.27837</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3088.65841</v>
+        <v>3088.95841</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>1754.22514</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>656.9924100000001</v>
+        <v>1000.56914</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>2792.89621</v>
@@ -1133,37 +1059,42 @@
         <v>2025.44207</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2142.42174</v>
+        <v>2143.51174</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>2491.7235</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>17707.279</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>649.62663</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>572.86992</v>
+        <v>572.8699200000001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>264.70692</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>359.73458</v>
+        <v>359.7345799999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>538.47429</v>
+        <v>538.7742900000001</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>1055.20856</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>509.1368200000001</v>
+        <v>852.7135500000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>924.00121</v>
@@ -1172,16 +1103,21 @@
         <v>1280.33452</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1795.73515</v>
+        <v>1796.82515</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>1597.76756</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>15214.282</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>419.38371</v>
@@ -1205,7 +1141,7 @@
         <v>122.36693</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>953.66232</v>
+        <v>953.6623199999999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>623.63118</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>621.82511</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>230.066</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>779.4703199999999</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>272.13083</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2262.931</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>550381.06308</v>
+        <v>550480.51186</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>600294.9376000001</v>
+        <v>600488.79099</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>724753.81063</v>
+        <v>725832.9820500001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>892783.5171000001</v>
+        <v>895211.9690500001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>984457.7597899999</v>
+        <v>989113.39677</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1078018.17754</v>
+        <v>1085570.46284</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1307177.66932</v>
+        <v>1323557.82059</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1584819.22304</v>
+        <v>1608813.16468</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1882566.51686</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2039494.92303</v>
+        <v>2056448.75503</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2407314.29996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2460380.03223</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2225376.166</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>328168.31726</v>
@@ -1307,37 +1258,42 @@
         <v>382325.88178</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>453904.24656</v>
+        <v>455625.28702</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>571039.79325</v>
+        <v>574201.5544</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>644142.30798</v>
+        <v>649187.6382600002</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>720469.17031</v>
+        <v>726805.4874700001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>887794.61405</v>
+        <v>902587.14691</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1131034.21731</v>
+        <v>1148216.8957</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1358414.30197</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1525810.25187</v>
+        <v>1531991.34833</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1835177.73768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1873019.11971</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1566926.412</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1545.41585</v>
@@ -1349,7 +1305,7 @@
         <v>5059.58032</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6763.424489999999</v>
+        <v>6763.42449</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>6620.94871</v>
@@ -1361,22 +1317,27 @@
         <v>8245.1059</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>8852.73999</v>
+        <v>15745.86859</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>19747.18042</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>28861.57646</v>
+        <v>28879.50333</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>36285.89592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>36609.73234</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15683.193</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>18471.34388</v>
@@ -1391,31 +1352,36 @@
         <v>16784.13669</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>25183.2075</v>
+        <v>25296.85807</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>28707.5511</v>
+        <v>28733.49557</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>23730.28472</v>
+        <v>27637.65808</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>35656.57625</v>
+        <v>36006.58062</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>98101.83875</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>68476.45714999999</v>
+        <v>68530.93277</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>127361.02574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>128664.24742</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>52439.213</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>307839.0691</v>
@@ -1424,40 +1390,45 @@
         <v>357455.65714</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>434922.32103</v>
+        <v>436643.36149</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>546913.8815899999</v>
+        <v>550075.64274</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>611748.91532</v>
+        <v>616680.59503</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>682187.135</v>
+        <v>688480.5585400001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>853604.8375199998</v>
+        <v>864489.9970200001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1080509.59912</v>
+        <v>1090449.14454</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1235929.66445</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1422386.82273</v>
+        <v>1428436.11076</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1664465.93131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1700604.14472</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1492517.982</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>312.4884300000001</v>
+        <v>312.48843</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>443.33866</v>
@@ -1466,112 +1437,127 @@
         <v>1318.35222</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>578.3504800000001</v>
+        <v>578.3504799999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>589.23645</v>
+        <v>589.2364500000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2694.86194</v>
+        <v>2711.81109</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>2214.38591</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6015.30195</v>
+        <v>6015.301949999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>4635.61835</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>6085.395530000001</v>
+        <v>6144.80147</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>7064.88471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7140.99523</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>6286.024</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>222212.74582</v>
+        <v>222312.1946</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>217969.05582</v>
+        <v>218162.90921</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>270849.56407</v>
+        <v>270207.6950299999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>321743.72385</v>
+        <v>321010.41465</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>340315.45181</v>
+        <v>339925.75851</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>357549.00723</v>
+        <v>358764.97537</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>419383.05527</v>
+        <v>420970.6736799999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>453785.00573</v>
+        <v>460596.26898</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>524152.21489</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>513684.67116</v>
+        <v>524457.4066999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>572136.56228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>587360.91252</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>658449.754</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>182405.57938</v>
+        <v>182538.74834</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>194123.23279</v>
+        <v>194312.82991</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>231721.81958</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>279913.42508</v>
+        <v>280028.8742</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>309147.91473</v>
+        <v>309725.7053</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>333267.54892</v>
+        <v>335456.8827</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>368380.52047</v>
+        <v>372069.66503</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>420746.81442</v>
+        <v>424024.3897700001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>484321.1608</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>525596.83084</v>
+        <v>538027.0039199999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>632808.53717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>653491.35506</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>592964.417</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>339.74331</v>
@@ -1592,7 +1578,7 @@
         <v>1180.98596</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>539.09235</v>
+        <v>611.23564</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>1380.37045</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>129.24659</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>204.268</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>9870.82315</v>
@@ -1631,103 +1622,118 @@
         <v>13798.36897</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>17957.70943</v>
+        <v>18150.88885</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>21593.87105</v>
+        <v>21662.88547</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>23031.44777</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>25226.97212999999</v>
+        <v>25235.41713</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>28523.65769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>30152.1233</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>27720.147</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>172195.01292</v>
+        <v>172328.18188</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>181366.6567999999</v>
+        <v>181556.25392</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>220339.46629</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>268376.15186</v>
+        <v>268491.60098</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>294252.11421</v>
+        <v>294829.90478</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>318288.19399</v>
+        <v>320477.52777</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>349883.71869</v>
+        <v>353307.54054</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>397772.57292</v>
+        <v>400981.13385</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>460305.21391</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>499868.39326</v>
+        <v>512290.12134</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>604155.63289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>623209.9851700001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>565040.002</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>39807.16644000001</v>
+        <v>39773.44626</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>23845.82303</v>
+        <v>23850.0793</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>39127.74449000001</v>
+        <v>38485.87545</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>41830.29877</v>
+        <v>40981.54045</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>31167.53708000001</v>
+        <v>30200.05321</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>24281.45831</v>
+        <v>23308.09267</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>51002.53479999999</v>
+        <v>48901.00865</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>33038.19131</v>
+        <v>36571.87921</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>39831.05409000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-11912.15968</v>
+        <v>-13569.59722</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-60671.97489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-66130.44254</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>65485.337</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>13293.61397</v>
@@ -1736,37 +1742,42 @@
         <v>3644.81287</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1465.34681</v>
+        <v>1476.27303</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4958.60681</v>
+        <v>4977.192590000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>11834.95756</v>
+        <v>11856.54551</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6405.05998</v>
+        <v>6438.454809999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>10353.1769</v>
+        <v>10384.75155</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>14489.06331</v>
+        <v>14734.82146</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>18590.23922</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>23791.81588</v>
+        <v>23874.44528</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>30335.51277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>30877.84306</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>23873.893</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>8758.741320000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>1.48002</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1133.14668</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>939.6404200000001</v>
+        <v>939.6404199999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>844.5391200000001</v>
+        <v>849.8720599999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1378.01318</v>
+        <v>1388.0608</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1583.81627</v>
+        <v>1596.46356</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1380.21494</v>
+        <v>1401.17796</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2635.15969</v>
+        <v>2657.21595</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2720.37979</v>
+        <v>2750.80853</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>4289.662310000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4734.62864</v>
+        <v>4737.56518</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6860.34209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7064.02941</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4563.015</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.55103</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>81.244</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>301.218</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>408.3360300000001</v>
+        <v>408.33603</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>16.227</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>157.97487</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>91.331</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>104.38075</v>
@@ -1994,13 +2030,18 @@
         <v>477.88075</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>235.83123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>236.76815</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>461.837</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>883.9586800000001</v>
@@ -2012,7 +2053,7 @@
         <v>1008.09124</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>564.0066699999999</v>
+        <v>564.00667</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>2406.52268</v>
@@ -2024,22 +2065,27 @@
         <v>1938.85538</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3666.255230000001</v>
+        <v>3879.94309</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4097.69908</v>
+        <v>4097.699079999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6232.593699999999</v>
+        <v>6233.686459999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4159.87461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4160.02631</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3732.155</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.16524</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>26.72099</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1976.77849</v>
@@ -2126,37 +2182,42 @@
         <v>1802.7156</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>-898.7538499999998</v>
+        <v>-893.1605700000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2840.05004</v>
+        <v>2848.5882</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7263.65906</v>
+        <v>7272.59972</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3103.90657</v>
+        <v>3116.33838</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5424.875430000001</v>
+        <v>5434.39382</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7877.594010000001</v>
+        <v>7879.23556</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>9894.834929999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>10048.61315</v>
+        <v>10127.21325</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>18837.60071</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>19175.15506</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>14724.337</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1684.44386</v>
@@ -2171,46 +2232,51 @@
         <v>1458.15355</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2368.83187</v>
+        <v>2368.83387</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2545.59102</v>
+        <v>2545.59859</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3900.25319</v>
+        <v>3900.25396</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5078.047350000001</v>
+        <v>5158.200849999999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>6528.64948</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8888.376109999999</v>
+        <v>8888.37616</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4322.17839</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4340.32192</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3762.373</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>49.96081</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>60.59628</v>
+        <v>60.59628000000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>73.67305</v>
+        <v>73.67304999999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>211.50079</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>118.6777</v>
+        <v>118.6797</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>539.28819</v>
@@ -2228,13 +2294,18 @@
         <v>332.19551</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>541.31714</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>541.5583800000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>200.958</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>74.35719999999999</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>252.84102</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>205.489</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6.24054</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>76.67372999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>27.674</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>794.7801100000001</v>
@@ -2327,7 +2408,7 @@
         <v>397.64223</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>513.5958499999999</v>
+        <v>513.59585</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>737.6050799999999</v>
@@ -2336,22 +2417,27 @@
         <v>1526.75462</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2018.84802</v>
+        <v>2099.001519999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>2983.32155</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7351.76904</v>
+        <v>7351.769040000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2531.23445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2534.14052</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1977.968</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>72.63285999999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>113.25952</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>174.735</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>7.08807</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>679.38427</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>405.3078199999999</v>
+        <v>405.30782</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>1436.88272</v>
@@ -2447,10 +2543,10 @@
         <v>1199.19679</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1006.36405</v>
+        <v>1006.37162</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1424.91669</v>
+        <v>1424.91746</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>2424.51338</v>
@@ -2459,97 +2555,112 @@
         <v>2334.98851</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>984.06372</v>
+        <v>984.06377</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>806.85253</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>821.84875</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1175.549</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>6115.56666</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5831.7557</v>
+        <v>5831.848099999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>6291.84709</v>
+        <v>6291.89219</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>9331.951070000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>10651.40351</v>
+        <v>10697.29434</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>14304.82924</v>
+        <v>14356.16905</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>17885.89642</v>
+        <v>18271.92789</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>25479.84192</v>
+        <v>25656.13808</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>29718.62496</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>38713.71373</v>
+        <v>38742.15347</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>39258.36657</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>39584.45288</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>38237.989</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>5271.03865</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5295.676390000001</v>
+        <v>5295.76879</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5562.128669999999</v>
+        <v>5562.173769999999</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>8429.570009999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9923.645640000001</v>
+        <v>9928.438920000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>13001.5546</v>
+        <v>13052.89441</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>16823.75142</v>
+        <v>17209.78289</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>24445.85117</v>
+        <v>24622.14733</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>27752.75135</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>36056.60133999999</v>
+        <v>36085.04108</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>35988.06545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>36314.15176</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>35767.369</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>844.5280099999999</v>
+        <v>844.52801</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>536.0793100000001</v>
@@ -2561,7 +2672,7 @@
         <v>902.38106</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>727.75787</v>
+        <v>768.8554200000001</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>1303.27464</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>3270.30112</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2470.62</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>45300.76989</v>
+        <v>45267.04971</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>20371.24732</v>
+        <v>20375.41119</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>32111.3071</v>
+        <v>31480.31918</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>35998.80096</v>
+        <v>35168.62842</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>29982.25926</v>
+        <v>28990.47051</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>13836.09803</v>
+        <v>12844.77984</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>39569.56209000001</v>
+        <v>37113.57835</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>16969.36535</v>
+        <v>20492.36174</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>22174.01887</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-35722.43364</v>
+        <v>-37325.68157</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-73917.00708000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-79177.37428</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>47358.868</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3835.31844</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4091.246929999999</v>
+        <v>4097.213839999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5651.47551</v>
+        <v>5694.93909</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8100.324030000001</v>
+        <v>8152.99513</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>21938.29278</v>
+        <v>22033.37719</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>12107.74733</v>
+        <v>12194.10884</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10771.8493</v>
+        <v>10897.90406</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>16308.78785</v>
+        <v>16340.72826</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>20727.93643</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>24506.63385</v>
+        <v>24537.73429</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>32132.49701</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>32464.27291</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>35164.826</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>21.00473</v>
@@ -2684,7 +2810,7 @@
         <v>284.94702</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>62.19658</v>
+        <v>72.77408</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>191.74371</v>
@@ -2693,55 +2819,65 @@
         <v>311.97701</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>425.41356</v>
+        <v>425.4135600000001</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>230.14624</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>257.674</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>3814.31371</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4048.515879999999</v>
+        <v>4054.48279</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5620.98968</v>
+        <v>5664.45326</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8087.513120000001</v>
+        <v>8140.18422</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>21714.48832</v>
+        <v>21809.57273</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>11822.80031</v>
+        <v>11909.16182</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10709.65272</v>
+        <v>10825.12998</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>16117.04414</v>
+        <v>16148.98455</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>20415.95942</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>24081.22029</v>
+        <v>24112.32073</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>31902.35077</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>32234.12667</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>34907.152</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>4127.9312</v>
@@ -2750,37 +2886,42 @@
         <v>4717.29557</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>70223.29346000002</v>
+        <v>70228.21225</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5842.1094</v>
+        <v>5849.593859999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11624.91228</v>
+        <v>11626.2474</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>33732.40193</v>
+        <v>33810.65126999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7071.315070000001</v>
+        <v>7153.376429999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>56105.30776</v>
+        <v>56199.72797</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>13405.18661</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>47255.5607</v>
+        <v>47413.84597</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>14939.35473</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>15106.94458</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>25644.02</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>148.47555</v>
@@ -2789,7 +2930,7 @@
         <v>152.83308</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>57.16715</v>
+        <v>57.16714999999999</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>61.37894</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>461.60551</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>3883.801</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>926.79431</v>
+        <v>926.7943100000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>463.91931</v>
@@ -2840,10 +2986,10 @@
         <v>381.52131</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>490.74661</v>
+        <v>493.33661</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>469.08009</v>
+        <v>469.9178899999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>835.6991</v>
@@ -2852,166 +2998,189 @@
         <v>925.52244</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>717.77818</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>717.7781799999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1072.216</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3052.66134</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4100.543180000001</v>
+        <v>4100.54318</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>69455.63265</v>
+        <v>69460.55144</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5456.37375</v>
+        <v>5463.85821</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9153.228160000001</v>
+        <v>9154.56328</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>33316.3235</v>
+        <v>33394.57284</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6527.887670000001</v>
+        <v>6607.359030000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>55541.46482</v>
+        <v>55635.04723</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>12176.56314</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>45857.06399</v>
+        <v>46015.34926</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>13759.97104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>13927.56089</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>20688.003</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>45008.15713</v>
+        <v>44974.43695</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>19745.19868</v>
+        <v>19755.32946</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-32460.51085</v>
+        <v>-33052.95398</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>38257.01559</v>
+        <v>37472.02969</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>40295.63976</v>
+        <v>39397.60030000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-7788.556570000001</v>
+        <v>-8771.762590000002</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>43270.09632</v>
+        <v>40858.10598000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-22827.15456</v>
+        <v>-19366.63797</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>29496.76869</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-58471.36048999999</v>
+        <v>-60201.79325000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-56723.8648</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-61820.04595</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>56879.674</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>7267.664060000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6633.55159</v>
+        <v>6635.57775</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7898.96807</v>
+        <v>7900.999080000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>9652.966169999998</v>
+        <v>9655.744359999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>11000.52572</v>
+        <v>11009.84635</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>10250.93532</v>
+        <v>10258.76059</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>14238.07568</v>
+        <v>14447.61828</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>15056.54845</v>
+        <v>15155.82298</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>16526.68987</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16390.89903</v>
+        <v>16493.97311</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>17037.52499</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>17338.3136</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>23680.538</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>37740.49306999999</v>
+        <v>37706.77289</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>13111.64709</v>
+        <v>13119.75171</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-40359.47892</v>
+        <v>-40953.95306</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>28604.04942</v>
+        <v>27816.28533</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>29295.11404000001</v>
+        <v>28387.75394999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-18039.49189</v>
+        <v>-19030.52318</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>29032.02064</v>
+        <v>26410.4877</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-37883.70301</v>
+        <v>-34522.46095</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>12970.07882</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-74862.25951999999</v>
+        <v>-76695.76635999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-73761.38979</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-79158.35954999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>33199.136</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1645</v>
+        <v>1663</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1811</v>
+        <v>1823</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1979</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2058</v>
+        <v>2133</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2285</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>